--- a/create-avery-labels/label-names.xlsx
+++ b/create-avery-labels/label-names.xlsx
@@ -1,47 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambaetleuk\Projects\python-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambaetleuk\Projects\python-scripts\create-avery-labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF06EB8-4D81-4058-8B0A-A8F9CD8C002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827CCDA-B66C-4F00-8137-50A6F154A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="6150" windowWidth="28800" windowHeight="15435" xr2:uid="{33163A0E-AE63-4B3F-BDC5-4507F2FE0EA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+  <si>
+    <t>Lafayette Street M</t>
+  </si>
   <si>
     <t>Creed - Love In White W</t>
   </si>
   <si>
-    <t>Lafayette Street M</t>
-  </si>
-  <si>
     <t>Creed - Silver Mountain Water M</t>
   </si>
   <si>
@@ -81,10 +67,238 @@
     <t>Big Pony Pink W</t>
   </si>
   <si>
-    <t>Lbre W</t>
-  </si>
-  <si>
     <t>Prada Candy W</t>
+  </si>
+  <si>
+    <t>Dylan Blue W</t>
+  </si>
+  <si>
+    <t>Dylan Blue M</t>
+  </si>
+  <si>
+    <t>Bright Crystal W</t>
+  </si>
+  <si>
+    <t>212 Heroes Forever Young W</t>
+  </si>
+  <si>
+    <t>Lick Me All Over W</t>
+  </si>
+  <si>
+    <t>Tory Burch W</t>
+  </si>
+  <si>
+    <t>Pink Privacy W</t>
+  </si>
+  <si>
+    <t>Gucci Guilty M</t>
+  </si>
+  <si>
+    <t>Delina W</t>
+  </si>
+  <si>
+    <t>Blue Electrique M</t>
+  </si>
+  <si>
+    <t>New York Nights M</t>
+  </si>
+  <si>
+    <t>Greenwich Village M</t>
+  </si>
+  <si>
+    <t>Beautiful Day W</t>
+  </si>
+  <si>
+    <t>Burberry Her</t>
+  </si>
+  <si>
+    <t>Chanel No. 5 W</t>
+  </si>
+  <si>
+    <t>YSL - Y M</t>
+  </si>
+  <si>
+    <t>Michelle Obama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versace Eros M </t>
+  </si>
+  <si>
+    <t>J'adore W</t>
+  </si>
+  <si>
+    <t>Spice Bomb M</t>
+  </si>
+  <si>
+    <t>Heat W</t>
+  </si>
+  <si>
+    <t>Miss Dior Rose Essence W</t>
+  </si>
+  <si>
+    <t>Love In White W</t>
+  </si>
+  <si>
+    <t>Libre W</t>
+  </si>
+  <si>
+    <t>Cloud Intense W</t>
+  </si>
+  <si>
+    <t>Phantom Legion M</t>
+  </si>
+  <si>
+    <t>Gypsy Water M</t>
+  </si>
+  <si>
+    <t>Reflection M</t>
+  </si>
+  <si>
+    <t>Santal 33 M</t>
+  </si>
+  <si>
+    <t>Burn In Roma M</t>
+  </si>
+  <si>
+    <t>Boss Bottled M</t>
+  </si>
+  <si>
+    <t>Bond No 9 Scent Of Peace M</t>
+  </si>
+  <si>
+    <t>Mr. Burberry M</t>
+  </si>
+  <si>
+    <t>Burberry Weekend W</t>
+  </si>
+  <si>
+    <t>Versace Eros Flame M</t>
+  </si>
+  <si>
+    <t>Gentle Fluidity Gold</t>
+  </si>
+  <si>
+    <t>Amber White</t>
+  </si>
+  <si>
+    <t>Michelle Obama W</t>
+  </si>
+  <si>
+    <t>Obama M</t>
+  </si>
+  <si>
+    <t>Eat It Raw</t>
+  </si>
+  <si>
+    <t>Psy M</t>
+  </si>
+  <si>
+    <t>Polo Red M</t>
+  </si>
+  <si>
+    <t>Polo Blue M</t>
+  </si>
+  <si>
+    <t>Jpg Ultra Male M</t>
+  </si>
+  <si>
+    <t>Olympia Solar W</t>
+  </si>
+  <si>
+    <t>Gucci Guilty Black M</t>
+  </si>
+  <si>
+    <t>Wind Flowers W</t>
+  </si>
+  <si>
+    <t>Jimmy Choo Women W</t>
+  </si>
+  <si>
+    <t>I Want Choo  W</t>
+  </si>
+  <si>
+    <t>Aquolina Pink Sugar W</t>
+  </si>
+  <si>
+    <t>Marc Jacobs Decadence W</t>
+  </si>
+  <si>
+    <t>Victoria Secret Tease Candy Noir W</t>
+  </si>
+  <si>
+    <t>Polo Big Pony Pink W</t>
+  </si>
+  <si>
+    <t>Love Spell Ysl Libre W</t>
+  </si>
+  <si>
+    <t>Versace Dylan Blue W</t>
+  </si>
+  <si>
+    <t>Maison Francis Baccarat Rogue</t>
+  </si>
+  <si>
+    <t>Yellow Diamond W</t>
+  </si>
+  <si>
+    <t>Good Girl W</t>
+  </si>
+  <si>
+    <t>Dior W</t>
+  </si>
+  <si>
+    <t>Dior Joy W</t>
+  </si>
+  <si>
+    <t>Pussy Oil W</t>
+  </si>
+  <si>
+    <t>Rihanna Fenty W</t>
+  </si>
+  <si>
+    <t>Kiss W</t>
+  </si>
+  <si>
+    <t>Egyptian Musk</t>
+  </si>
+  <si>
+    <t>Paris Hilton W</t>
+  </si>
+  <si>
+    <t>Juicy Couture W</t>
+  </si>
+  <si>
+    <t>Beyonce Heat W</t>
+  </si>
+  <si>
+    <t>Heat Rush W</t>
+  </si>
+  <si>
+    <t>Tom Ford Black Orchid W</t>
+  </si>
+  <si>
+    <t>Nikki Minaj Pink Friday W</t>
+  </si>
+  <si>
+    <t>Queen W</t>
+  </si>
+  <si>
+    <t>Gucci Guilty W</t>
+  </si>
+  <si>
+    <t>Delina Perfumes De Marley W</t>
+  </si>
+  <si>
+    <t>D&amp;G Light Blue W</t>
+  </si>
+  <si>
+    <t>Coco Mademoiselle W</t>
+  </si>
+  <si>
+    <t>Chanel Gabrielle W</t>
+  </si>
+  <si>
+    <t>D&amp;G Light Blue M</t>
   </si>
 </sst>
 </file>
@@ -127,7 +341,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,20 +388,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -215,31 +429,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -267,23 +464,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -295,244 +475,653 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7816A9-E25A-4F46-8DFA-D43D6F0140F4}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A118">
+    <sortCondition ref="A61:A118"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/create-avery-labels/label-names.xlsx
+++ b/create-avery-labels/label-names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambaetleuk\Projects\python-scripts\create-avery-labels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambaetleuk\projects\Python-Scripts\create-avery-labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827CCDA-B66C-4F00-8137-50A6F154A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6A162B-DEDB-4FF7-A1B2-6C55A35DE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13710" yWindow="1995" windowWidth="57600" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Lafayette Street M</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Bright Crystal W</t>
   </si>
   <si>
-    <t>212 Heroes Forever Young W</t>
-  </si>
-  <si>
     <t>Lick Me All Over W</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Gentle Fluidity Gold</t>
   </si>
   <si>
-    <t>Amber White</t>
-  </si>
-  <si>
     <t>Michelle Obama W</t>
   </si>
   <si>
@@ -299,6 +293,9 @@
   </si>
   <si>
     <t>D&amp;G Light Blue M</t>
+  </si>
+  <si>
+    <t>Amber WhiteDior Homme M</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,17 +651,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,12 +671,12 @@
     </row>
     <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,17 +686,17 @@
     </row>
     <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,37 +706,37 @@
     </row>
     <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,12 +766,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -784,17 +781,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -804,7 +801,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -824,22 +821,22 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -849,67 +846,67 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -919,77 +916,77 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -999,12 +996,12 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -1014,17 +1011,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -1034,37 +1031,37 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -1074,47 +1071,47 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
